--- a/Practice1/Sample Columns.xlsx
+++ b/Practice1/Sample Columns.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BF0502-9969-4C33-BDDD-15E0B738C1AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73816555-F5DF-4143-9667-80F29931705C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11480" yWindow="0" windowWidth="9820" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11080" yWindow="7230" windowWidth="9820" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,8 +374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
